--- a/doc/Other/TwoPoints.xlsx
+++ b/doc/Other/TwoPoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\doc\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE60DF0-97E2-42DB-835F-41C3A3287857}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B3F5AA-F0C8-4DFB-B475-71B9FF66461D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17080" xr2:uid="{46BACBF0-4092-4CE3-9F23-4DEB0AD108E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>https://www.geeksforgeeks.org/two-pointers-technique/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>OJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3003F27E-F173-4C45-9F6E-61BA5724C5C1}">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -570,6 +578,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>0</v>
@@ -592,7 +608,7 @@
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
